--- a/acooly-core-test/src/main/resources/misc/app_import_test.xlsx
+++ b/acooly-core-test/src/main/resources/misc/app_import_test.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangpu/workspace/acooly/acooly-core/acooly-core-test/src/main/resources/misc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangpu/workspace/acooly/acooly4/acooly-core/acooly-core-test/src/main/resources/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7100" yWindow="10900" windowWidth="28720" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="33520" windowHeight="20540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -204,8 +204,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="yyyy/m/d\ h:mm;@"/>
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -244,10 +245,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -528,12 +530,12 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="1"/>
     <col min="7" max="7" width="21" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
@@ -549,7 +551,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E1" t="s">
@@ -578,8 +580,8 @@
       <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2">
-        <v>2.0170912121212E+17</v>
+      <c r="D2" s="3">
+        <v>201709</v>
       </c>
       <c r="E2" t="s">
         <v>21</v>
@@ -604,8 +606,8 @@
       <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="D3">
-        <v>2.0170912121212E+17</v>
+      <c r="D3" s="3">
+        <v>201709</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -633,8 +635,8 @@
       <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="D4">
-        <v>2.0170912121212E+17</v>
+      <c r="D4" s="3">
+        <v>201709</v>
       </c>
       <c r="E4" t="s">
         <v>22</v>
